--- a/Sprint_05/Unidad_02/Ejercicios_Workout/data/ejercicio_excel.xlsx
+++ b/Sprint_05/Unidad_02/Ejercicios_Workout/data/ejercicio_excel.xlsx
@@ -452,91 +452,91 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1993</v>
+        <v>1903</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La creación de la Unión Europea</t>
+          <t>El primer vuelo de los hermanos Wright</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Europa</t>
+          <t>Estados Unidos</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1989</v>
+        <v>1912</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La caída del Muro de Berlín</t>
+          <t>El hundimiento del Titanic</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>el Atlántico Norte</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1953</v>
+        <v>1914</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La primera ascensión al Everest</t>
+          <t>El inicio de la Primera Guerra Mundial</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nepal/China</t>
+          <t>Europa</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1949</v>
+        <v>1917</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La creación de la República Popular China</t>
+          <t>La Revolución Rusa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Rusia</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1947</v>
+        <v>1919</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>La independencia de la India</t>
+          <t>La firma del Tratado de Versalles</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Francia</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1945</v>
+        <v>1928</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>El final de la Segunda Guerra Mundial</t>
+          <t>El descubrimiento de la penicilina por Alexander Fleming</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>el Mundo</t>
+          <t>Reino Unido</t>
         </is>
       </c>
     </row>
@@ -557,91 +557,91 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1928</v>
+        <v>1945</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>El descubrimiento de la penicilina por Alexander Fleming</t>
+          <t>El final de la Segunda Guerra Mundial</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Reino Unido</t>
+          <t>el Mundo</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1919</v>
+        <v>1947</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>La firma del Tratado de Versalles</t>
+          <t>La independencia de la India</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>India</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1917</v>
+        <v>1949</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>La Revolución Rusa</t>
+          <t>La creación de la República Popular China</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Rusia</t>
+          <t>China</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1914</v>
+        <v>1953</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>El inicio de la Primera Guerra Mundial</t>
+          <t>La primera ascensión al Everest</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Europa</t>
+          <t>Nepal/China</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1912</v>
+        <v>1989</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>El hundimiento del Titanic</t>
+          <t>La caída del Muro de Berlín</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>el Atlántico Norte</t>
+          <t>Alemania</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1903</v>
+        <v>1993</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>El primer vuelo de los hermanos Wright</t>
+          <t>La creación de la Unión Europea</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
+          <t>Europa</t>
         </is>
       </c>
     </row>
